--- a/cars.xlsx
+++ b/cars.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Marka</t>
   </si>
@@ -91,6 +92,27 @@
   <si>
     <t>VW</t>
   </si>
+  <si>
+    <t>χιλιόμετρα</t>
+  </si>
+  <si>
+    <t>υβριδικά</t>
+  </si>
+  <si>
+    <t>βενζίνη</t>
+  </si>
+  <si>
+    <t>ποσοστό</t>
+  </si>
+  <si>
+    <t>χρονολογία</t>
+  </si>
+  <si>
+    <t>σύνολο</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +150,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,16 +171,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -367,11 +435,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-255305168"/>
-        <c:axId val="-255297552"/>
+        <c:axId val="-1385342240"/>
+        <c:axId val="-1385353120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-255305168"/>
+        <c:axId val="-1385342240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +482,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-255297552"/>
+        <c:crossAx val="-1385353120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,7 +490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-255297552"/>
+        <c:axId val="-1385353120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +541,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-255305168"/>
+        <c:crossAx val="-1385342240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -725,11 +793,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-255302448"/>
-        <c:axId val="-255301360"/>
+        <c:axId val="-1385349856"/>
+        <c:axId val="-1385352576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-255302448"/>
+        <c:axId val="-1385349856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +840,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-255301360"/>
+        <c:crossAx val="-1385352576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-255301360"/>
+        <c:axId val="-1385352576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +899,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-255302448"/>
+        <c:crossAx val="-1385349856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,11 +1150,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-255299184"/>
-        <c:axId val="-255297008"/>
+        <c:axId val="-1385341696"/>
+        <c:axId val="-1385341152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-255299184"/>
+        <c:axId val="-1385341696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1197,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-255297008"/>
+        <c:crossAx val="-1385341152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1137,7 +1205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-255297008"/>
+        <c:axId val="-1385341152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1256,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-255299184"/>
+        <c:crossAx val="-1385341696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3227,7 +3295,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3888,4 +3956,383 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>227</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2/(C2+D2)</f>
+        <v>1.7316017316017316E-2</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <f>G2/(G2+H2)</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1392</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E13" si="0">C3/(C3+D3)</f>
+        <v>1.5558698727015558E-2</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>125</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3/(G3+H3)</f>
+        <v>6.0150375939849621E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>8986</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1441144114411441E-2</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>495</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4/(G4+H4)</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2908</v>
+      </c>
+      <c r="D5" s="1">
+        <v>53038</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1978693740392524E-2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1245</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3066</v>
+      </c>
+      <c r="I5" s="6">
+        <f>G5/(G5+H5)</f>
+        <v>0.28879610299234515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I9" si="1">G6/(G6+H6)</f>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>222</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30625000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>824</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9596309111880045E-2</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>340</v>
+      </c>
+      <c r="H8">
+        <v>751</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31164069660861593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2778</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27978</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0323839250877877E-2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1220</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1885</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.39291465378421903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>246</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24307692307692308</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1781</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5517</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24403946286653877</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>